--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.991953333333333</v>
+        <v>1.497358</v>
       </c>
       <c r="N2">
-        <v>8.975860000000001</v>
+        <v>4.492074</v>
       </c>
       <c r="O2">
-        <v>0.3033492052285701</v>
+        <v>0.1745361405473024</v>
       </c>
       <c r="P2">
-        <v>0.3033492052285701</v>
+        <v>0.1745361405473024</v>
       </c>
       <c r="Q2">
-        <v>227.6353692687556</v>
+        <v>0.2021408344033333</v>
       </c>
       <c r="R2">
-        <v>2048.7183234188</v>
+        <v>1.81926750963</v>
       </c>
       <c r="S2">
-        <v>0.2908456054291093</v>
+        <v>0.01080113121293911</v>
       </c>
       <c r="T2">
-        <v>0.2908456054291093</v>
+        <v>0.01080113121293911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.877472</v>
       </c>
       <c r="O3">
-        <v>0.5028007686183056</v>
+        <v>0.578052931447825</v>
       </c>
       <c r="P3">
-        <v>0.5028007686183057</v>
+        <v>0.5780529314478249</v>
       </c>
       <c r="Q3">
-        <v>377.3052200575289</v>
+        <v>0.6694779747377778</v>
       </c>
       <c r="R3">
-        <v>3395.74698051776</v>
+        <v>6.025301772640001</v>
       </c>
       <c r="S3">
-        <v>0.4820760741694524</v>
+        <v>0.0357726803229038</v>
       </c>
       <c r="T3">
-        <v>0.4820760741694525</v>
+        <v>0.03577268032290379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.911955666666667</v>
+        <v>2.122556</v>
       </c>
       <c r="N4">
-        <v>5.735867000000001</v>
+        <v>6.367668</v>
       </c>
       <c r="O4">
-        <v>0.1938500261531243</v>
+        <v>0.2474109280048726</v>
       </c>
       <c r="P4">
-        <v>0.1938500261531243</v>
+        <v>0.2474109280048726</v>
       </c>
       <c r="Q4">
-        <v>145.4664179946511</v>
+        <v>0.2865415224066666</v>
       </c>
       <c r="R4">
-        <v>1309.19776195186</v>
+        <v>2.57887370166</v>
       </c>
       <c r="S4">
-        <v>0.1858598184770984</v>
+        <v>0.01531097163324415</v>
       </c>
       <c r="T4">
-        <v>0.1858598184770984</v>
+        <v>0.01531097163324415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.991953333333333</v>
+        <v>1.497358</v>
       </c>
       <c r="N5">
-        <v>8.975860000000001</v>
+        <v>4.492074</v>
       </c>
       <c r="O5">
-        <v>0.3033492052285701</v>
+        <v>0.1745361405473024</v>
       </c>
       <c r="P5">
-        <v>0.3033492052285701</v>
+        <v>0.1745361405473024</v>
       </c>
       <c r="Q5">
-        <v>2.796701450753333</v>
+        <v>1.399641914278</v>
       </c>
       <c r="R5">
-        <v>25.17031305678</v>
+        <v>12.596777228502</v>
       </c>
       <c r="S5">
-        <v>0.003573294999198822</v>
+        <v>0.07478803583585417</v>
       </c>
       <c r="T5">
-        <v>0.003573294999198822</v>
+        <v>0.07478803583585415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.877472</v>
       </c>
       <c r="O6">
-        <v>0.5028007686183056</v>
+        <v>0.578052931447825</v>
       </c>
       <c r="P6">
-        <v>0.5028007686183057</v>
+        <v>0.5780529314478249</v>
       </c>
       <c r="Q6">
         <v>4.635527684917333</v>
@@ -818,10 +818,10 @@
         <v>41.719749164256</v>
       </c>
       <c r="S6">
-        <v>0.005922730111467924</v>
+        <v>0.2476933614813374</v>
       </c>
       <c r="T6">
-        <v>0.005922730111467926</v>
+        <v>0.2476933614813373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.911955666666667</v>
+        <v>2.122556</v>
       </c>
       <c r="N7">
-        <v>5.735867000000001</v>
+        <v>6.367668</v>
       </c>
       <c r="O7">
-        <v>0.1938500261531243</v>
+        <v>0.2474109280048726</v>
       </c>
       <c r="P7">
-        <v>0.1938500261531243</v>
+        <v>0.2474109280048726</v>
       </c>
       <c r="Q7">
-        <v>1.787183351815667</v>
+        <v>1.984040117996</v>
       </c>
       <c r="R7">
-        <v>16.084650166341</v>
+        <v>17.856361061964</v>
       </c>
       <c r="S7">
-        <v>0.002283451932981302</v>
+        <v>0.1060145898252838</v>
       </c>
       <c r="T7">
-        <v>0.002283451932981302</v>
+        <v>0.1060145898252838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H8">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.991953333333333</v>
+        <v>1.497358</v>
       </c>
       <c r="N8">
-        <v>8.975860000000001</v>
+        <v>4.492074</v>
       </c>
       <c r="O8">
-        <v>0.3033492052285701</v>
+        <v>0.1745361405473024</v>
       </c>
       <c r="P8">
-        <v>0.3033492052285701</v>
+        <v>0.1745361405473024</v>
       </c>
       <c r="Q8">
-        <v>6.989458300017779</v>
+        <v>1.664623370106</v>
       </c>
       <c r="R8">
-        <v>62.90512470016001</v>
+        <v>14.981610330954</v>
       </c>
       <c r="S8">
-        <v>0.008930304800262011</v>
+        <v>0.08894697349850915</v>
       </c>
       <c r="T8">
-        <v>0.008930304800262011</v>
+        <v>0.08894697349850914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H9">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>14.877472</v>
       </c>
       <c r="O9">
-        <v>0.5028007686183056</v>
+        <v>0.578052931447825</v>
       </c>
       <c r="P9">
-        <v>0.5028007686183057</v>
+        <v>0.5780529314478249</v>
       </c>
       <c r="Q9">
-        <v>11.58501471209245</v>
+        <v>5.513129921568001</v>
       </c>
       <c r="R9">
-        <v>104.265132408832</v>
+        <v>49.618169294112</v>
       </c>
       <c r="S9">
-        <v>0.01480196433738535</v>
+        <v>0.2945868896435838</v>
       </c>
       <c r="T9">
-        <v>0.01480196433738535</v>
+        <v>0.2945868896435838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H10">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.911955666666667</v>
+        <v>2.122556</v>
       </c>
       <c r="N10">
-        <v>5.735867000000001</v>
+        <v>6.367668</v>
       </c>
       <c r="O10">
-        <v>0.1938500261531243</v>
+        <v>0.2474109280048726</v>
       </c>
       <c r="P10">
-        <v>0.1938500261531243</v>
+        <v>0.2474109280048726</v>
       </c>
       <c r="Q10">
-        <v>4.466491590883557</v>
+        <v>2.359660363092</v>
       </c>
       <c r="R10">
-        <v>40.198424317952</v>
+        <v>21.236943267828</v>
       </c>
       <c r="S10">
-        <v>0.005706755743044618</v>
+        <v>0.1260853665463447</v>
       </c>
       <c r="T10">
-        <v>0.005706755743044618</v>
+        <v>0.1260853665463447</v>
       </c>
     </row>
   </sheetData>
